--- a/source_analyses/nl/2019/11_area/11_area_source_analysis_2019.xlsx
+++ b/source_analyses/nl/2019/11_area/11_area_source_analysis_2019.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/source_analyses/nl/2019/11_area/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/source_analyses/nl/2019/11_area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C214E138-AF65-1140-BF3C-05E0BD727D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B24151-BB77-B24F-AEBB-A6C3C08D4AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24460" yWindow="500" windowWidth="25600" windowHeight="20400" activeTab="1" xr2:uid="{5BE96A6D-847B-CF48-8A47-29BE7A6387CF}"/>
+    <workbookView xWindow="25600" yWindow="14080" windowWidth="25600" windowHeight="13580" activeTab="2" xr2:uid="{5BE96A6D-847B-CF48-8A47-29BE7A6387CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Carrier costs" sheetId="1" r:id="rId1"/>
     <sheet name="Carrier CO2" sheetId="2" r:id="rId2"/>
+    <sheet name="Storage CO2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>Coal</t>
   </si>
@@ -140,6 +141,24 @@
   </si>
   <si>
     <t>Source: Klimaatmonitor; https://klimaatmonitor.databank.nl/Jive?workspace_guid=75096a88-01b8-48cc-8735-45cb28b1cb27</t>
+  </si>
+  <si>
+    <t>offshore_ccs_potential_mt_per_year</t>
+  </si>
+  <si>
+    <t>Mton/year</t>
+  </si>
+  <si>
+    <t>Based on the study "Nationale CO2-opslagbehoefte tot 2035" by Royal HaskoningDHV</t>
+  </si>
+  <si>
+    <t>Yearly potential for offshore CO2 storage</t>
+  </si>
+  <si>
+    <t>Correctection factor to allow new studies</t>
+  </si>
+  <si>
+    <t>Scenario: "Maximale afvang", year 2035</t>
   </si>
 </sst>
 </file>
@@ -180,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,17 +207,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E2652-BA22-4A45-9155-409070957A31}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1000,4 +1036,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4E600F-F540-B644-9D86-487FE126E97D}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5">
+        <f>C6*C7</f>
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>